--- a/02_Comunication_simulation/[Device] cnc/OPC node.xlsx
+++ b/02_Comunication_simulation/[Device] cnc/OPC node.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IAN\Dropbox\NTU\02_研究\03_Programs\02_Comunication_simulation\Server(CNC)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IAN\Dropbox\NTU\02_研究\03_Programs\02_Comunication_simulation\[Device] cnc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0F49F5-D3EC-49E6-974C-5EA127FDE829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68F8EBD-AAC1-4AB7-BC36-4431161E324C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6BCD442E-11FD-42E4-ACBF-88ABEF6C6BA0}"/>
   </bookViews>
@@ -53,181 +53,182 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>read_data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>write_data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scenario</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frequency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tool ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tool radius correction value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tool length correction value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tool life</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>override</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>device</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tool Sensor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vibration data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temperature data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vibration sensor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temperatuer sensor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Job Scheduling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1 sec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 sec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>job queue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operation status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main project</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>machine id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Robot Arm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Machinery Basic Building Blocks - 12 MachineryItemState (opcfoundation.org)</t>
+  </si>
+  <si>
+    <t>Machinery Basic Building Blocks (opcfoundation.org)</t>
+  </si>
+  <si>
+    <t>Machinery Basic Building Blocks - 8 Machine Identification and Nameplate (opcfoundation.org)</t>
+  </si>
+  <si>
+    <t>Machine Tools - Monitoring and Job Overview - 8.4.3 ProductionJobType (opcfoundation.org)</t>
+  </si>
+  <si>
+    <t>Machine Tools - Monitoring and Job Overview - 8.5.4 ToolType (opcfoundation.org)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Machine Tools - Monitoring and Job Overview (opcfoundation.org)</t>
+  </si>
+  <si>
+    <t>CNC Systems - 6.10 CncAlarmType (opcfoundation.org)</t>
+  </si>
+  <si>
+    <t>CNC Systems (opcfoundation.org)</t>
+  </si>
+  <si>
+    <t>Machine Tools - Monitoring and Job Overview - 11.1 ToolLifeType (opcfoundation.org)</t>
+  </si>
+  <si>
+    <t>CNC Systems - 6.6 CncChannelType (opcfoundation.org)</t>
+  </si>
+  <si>
+    <t>CNC Systems - 6.7 CncDriveType (opcfoundation.org)</t>
+  </si>
+  <si>
+    <t>Machinery Basic Building Blocks - 8 Machine Identification and Nameplate (opcfoundation.org)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AutomationML - 7.7.2.8 Sensor (opcfoundation.org)</t>
+  </si>
+  <si>
+    <t>AutomationML (opcfoundation.org)</t>
+  </si>
+  <si>
+    <t>automatic workpiece changing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Predictive Maintenance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>command spindle torque</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spindle torque</t>
+  </si>
+  <si>
+    <t>NodeSets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Tool Wear Detection</t>
-  </si>
-  <si>
-    <t>read_data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>write_data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>scenario</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reference</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>frequency</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tool ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tool radius correction value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tool length correction value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tool life</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>override</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>device</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tool Sensor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vibration data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>temperature data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vibration sensor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>temperatuer sensor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>on time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Job Scheduling</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.1 sec</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 sec</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>job queue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>operation status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>main project</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>machine id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 min</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M function</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10 min</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Robot Arm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Machinery Basic Building Blocks - 12 MachineryItemState (opcfoundation.org)</t>
-  </si>
-  <si>
-    <t>Machinery Basic Building Blocks (opcfoundation.org)</t>
-  </si>
-  <si>
-    <t>Machinery Basic Building Blocks - 8 Machine Identification and Nameplate (opcfoundation.org)</t>
-  </si>
-  <si>
-    <t>Machine Tools - Monitoring and Job Overview - 8.4.3 ProductionJobType (opcfoundation.org)</t>
-  </si>
-  <si>
-    <t>Machine Tools - Monitoring and Job Overview - 8.5.4 ToolType (opcfoundation.org)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Machine Tools - Monitoring and Job Overview (opcfoundation.org)</t>
-  </si>
-  <si>
-    <t>CNC Systems - 6.10 CncAlarmType (opcfoundation.org)</t>
-  </si>
-  <si>
-    <t>CNC Systems (opcfoundation.org)</t>
-  </si>
-  <si>
-    <t>Machine Tools - Monitoring and Job Overview - 11.1 ToolLifeType (opcfoundation.org)</t>
-  </si>
-  <si>
-    <t>CNC Systems - 6.6 CncChannelType (opcfoundation.org)</t>
-  </si>
-  <si>
-    <t>CNC Systems - 6.7 CncDriveType (opcfoundation.org)</t>
-  </si>
-  <si>
-    <t>Machinery Basic Building Blocks - 8 Machine Identification and Nameplate (opcfoundation.org)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AutomationML - 7.7.2.8 Sensor (opcfoundation.org)</t>
-  </si>
-  <si>
-    <t>AutomationML (opcfoundation.org)</t>
-  </si>
-  <si>
-    <t>automatic workpiece changing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Predictive Maintenance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>command spindle torque</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spindle torque</t>
-  </si>
-  <si>
-    <t>NodeSets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 sec</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -358,20 +359,20 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -692,7 +693,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G24" sqref="G24:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -706,516 +707,516 @@
     <col min="7" max="7" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>4</v>
+      <c r="A2" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="7" t="s">
+      <c r="F2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="6"/>
+        <v>43</v>
+      </c>
+      <c r="F5" s="9"/>
       <c r="G5" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="6"/>
+        <v>43</v>
+      </c>
+      <c r="F6" s="9"/>
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="2"/>
       <c r="C7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="9" t="s">
+      <c r="F7" s="9"/>
+      <c r="G7" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="6"/>
+        <v>43</v>
+      </c>
+      <c r="F8" s="9"/>
       <c r="G8" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="B10" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="7"/>
+        <v>41</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="7"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="7"/>
+        <v>37</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
+      <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="6"/>
+        <v>43</v>
+      </c>
+      <c r="F15" s="9"/>
       <c r="G15" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
+      <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="6"/>
+        <v>43</v>
+      </c>
+      <c r="F16" s="9"/>
       <c r="G16" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>22</v>
+      <c r="A17" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="10" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="10"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
+      <c r="A19" s="9"/>
       <c r="B19" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="7"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="10"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
+      <c r="A20" s="9"/>
       <c r="B20" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
+      <c r="A21" s="9"/>
       <c r="B21" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="7"/>
+        <v>37</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
+      <c r="A22" s="9"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="7"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="10"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
+      <c r="A23" s="9"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="9"/>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="7"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="F24" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="10" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
+      <c r="A25" s="9"/>
       <c r="B25" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="7"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="10"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
+      <c r="A26" s="9"/>
       <c r="B26" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="7"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="10"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
+      <c r="A27" s="9"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="7" t="s">
-        <v>32</v>
+      <c r="F27" s="9"/>
+      <c r="G27" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
+      <c r="A28" s="9"/>
       <c r="B28" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="10"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
+      <c r="A29" s="9"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="F29" s="9"/>
+      <c r="G29" s="10"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
+      <c r="A30" s="9"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F30" s="6"/>
-      <c r="G30" s="7" t="s">
+      <c r="F30" s="9"/>
+      <c r="G30" s="10" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
+      <c r="A31" s="9"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F31" s="6"/>
-      <c r="G31" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="F31" s="9"/>
+      <c r="G31" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="16">

--- a/02_Comunication_simulation/[Device] cnc/OPC node.xlsx
+++ b/02_Comunication_simulation/[Device] cnc/OPC node.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IAN\Dropbox\NTU\02_研究\03_Programs\02_Comunication_simulation\[Device] cnc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68F8EBD-AAC1-4AB7-BC36-4431161E324C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB5ADE8-3193-4B39-9DD2-74619B36DC5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6BCD442E-11FD-42E4-ACBF-88ABEF6C6BA0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6BCD442E-11FD-42E4-ACBF-88ABEF6C6BA0}"/>
   </bookViews>
   <sheets>
     <sheet name="CNC (M,T)" sheetId="2" r:id="rId1"/>
@@ -693,7 +693,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24:G26"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
